--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H2">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I2">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J2">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>550.0569519999999</v>
+        <v>547.450775</v>
       </c>
       <c r="N2">
-        <v>1650.170856</v>
+        <v>1642.352325</v>
       </c>
       <c r="O2">
-        <v>0.9236787975512359</v>
+        <v>0.8253533007282613</v>
       </c>
       <c r="P2">
-        <v>0.9236787975512361</v>
+        <v>0.8253533007282614</v>
       </c>
       <c r="Q2">
-        <v>3340.017870004712</v>
+        <v>573.1085154391084</v>
       </c>
       <c r="R2">
-        <v>30060.16083004241</v>
+        <v>5157.976638951975</v>
       </c>
       <c r="S2">
-        <v>0.003642988500519188</v>
+        <v>0.0005674347070330932</v>
       </c>
       <c r="T2">
-        <v>0.003642988500519188</v>
+        <v>0.0005674347070330933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H3">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I3">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J3">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>4.344058</v>
       </c>
       <c r="O3">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="P3">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="Q3">
-        <v>8.79256308253267</v>
+        <v>1.515884620774889</v>
       </c>
       <c r="R3">
-        <v>79.13306774279403</v>
+        <v>13.642961586974</v>
       </c>
       <c r="S3">
-        <v>9.590130186851628E-06</v>
+        <v>1.500877272825589E-06</v>
       </c>
       <c r="T3">
-        <v>9.590130186851626E-06</v>
+        <v>1.500877272825589E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H4">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I4">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J4">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.00177133333333</v>
+        <v>114.393852</v>
       </c>
       <c r="N4">
-        <v>132.005314</v>
+        <v>343.181556</v>
       </c>
       <c r="O4">
-        <v>0.07388962740588684</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="P4">
-        <v>0.07388962740588685</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="Q4">
-        <v>267.1845197680447</v>
+        <v>119.755224924252</v>
       </c>
       <c r="R4">
-        <v>2404.660677912403</v>
+        <v>1077.797024318268</v>
       </c>
       <c r="S4">
-        <v>0.0002914206363304144</v>
+        <v>0.000118569641071395</v>
       </c>
       <c r="T4">
-        <v>0.0002914206363304144</v>
+        <v>0.000118569641071395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J5">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>550.0569519999999</v>
+        <v>547.450775</v>
       </c>
       <c r="N5">
-        <v>1650.170856</v>
+        <v>1642.352325</v>
       </c>
       <c r="O5">
-        <v>0.9236787975512359</v>
+        <v>0.8253533007282613</v>
       </c>
       <c r="P5">
-        <v>0.9236787975512361</v>
+        <v>0.8253533007282614</v>
       </c>
       <c r="Q5">
-        <v>814552.8311387599</v>
+        <v>810693.4692198168</v>
       </c>
       <c r="R5">
-        <v>7330975.48024884</v>
+        <v>7296241.222978352</v>
       </c>
       <c r="S5">
-        <v>0.8884403354703202</v>
+        <v>0.8026675556337366</v>
       </c>
       <c r="T5">
-        <v>0.8884403354703201</v>
+        <v>0.8026675556337368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J6">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>4.344058</v>
       </c>
       <c r="O6">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="P6">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="Q6">
         <v>2144.302045854929</v>
@@ -818,10 +818,10 @@
         <v>19298.71841269436</v>
       </c>
       <c r="S6">
-        <v>0.002338810149742779</v>
+        <v>0.002123073328002978</v>
       </c>
       <c r="T6">
-        <v>0.002338810149742778</v>
+        <v>0.002123073328002979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J7">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.00177133333333</v>
+        <v>114.393852</v>
       </c>
       <c r="N7">
-        <v>132.005314</v>
+        <v>343.181556</v>
       </c>
       <c r="O7">
-        <v>0.07388962740588684</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="P7">
-        <v>0.07388962740588685</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="Q7">
-        <v>65160.10257550021</v>
+        <v>169400.3424057593</v>
       </c>
       <c r="R7">
-        <v>586440.9231795019</v>
+        <v>1524603.081651833</v>
       </c>
       <c r="S7">
-        <v>0.07107072884459242</v>
+        <v>0.1677232689356727</v>
       </c>
       <c r="T7">
-        <v>0.07107072884459241</v>
+        <v>0.1677232689356727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H8">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I8">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J8">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>550.0569519999999</v>
+        <v>547.450775</v>
       </c>
       <c r="N8">
-        <v>1650.170856</v>
+        <v>1642.352325</v>
       </c>
       <c r="O8">
-        <v>0.9236787975512359</v>
+        <v>0.8253533007282613</v>
       </c>
       <c r="P8">
-        <v>0.9236787975512361</v>
+        <v>0.8253533007282614</v>
       </c>
       <c r="Q8">
-        <v>28967.82308117283</v>
+        <v>22339.47249451104</v>
       </c>
       <c r="R8">
-        <v>260710.4077305555</v>
+        <v>201055.2524505994</v>
       </c>
       <c r="S8">
-        <v>0.03159547358039676</v>
+        <v>0.02211831038749159</v>
       </c>
       <c r="T8">
-        <v>0.03159547358039676</v>
+        <v>0.0221183103874916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H9">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I9">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J9">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>4.344058</v>
       </c>
       <c r="O9">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="P9">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="Q9">
-        <v>76.25749972544268</v>
+        <v>59.08839578959444</v>
       </c>
       <c r="R9">
-        <v>686.3174975289841</v>
+        <v>531.79556210635</v>
       </c>
       <c r="S9">
-        <v>8.317476294752308E-05</v>
+        <v>5.850341715518682E-05</v>
       </c>
       <c r="T9">
-        <v>8.317476294752306E-05</v>
+        <v>5.850341715518684E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H10">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I10">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J10">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.00177133333333</v>
+        <v>114.393852</v>
       </c>
       <c r="N10">
-        <v>132.005314</v>
+        <v>343.181556</v>
       </c>
       <c r="O10">
-        <v>0.07388962740588684</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="P10">
-        <v>0.07388962740588685</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="Q10">
-        <v>2317.279188287075</v>
+        <v>4667.996515842299</v>
       </c>
       <c r="R10">
-        <v>20855.51269458367</v>
+        <v>42011.96864258069</v>
       </c>
       <c r="S10">
-        <v>0.002527477924964019</v>
+        <v>0.004621783072563512</v>
       </c>
       <c r="T10">
-        <v>0.002527477924964019</v>
+        <v>0.004621783072563513</v>
       </c>
     </row>
   </sheetData>
